--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H2">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I2">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J2">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.9911114573531</v>
+        <v>15.16337366666667</v>
       </c>
       <c r="N2">
-        <v>14.9911114573531</v>
+        <v>45.490121</v>
       </c>
       <c r="O2">
-        <v>0.7323876871697541</v>
+        <v>0.722233085414401</v>
       </c>
       <c r="P2">
-        <v>0.7323876871697541</v>
+        <v>0.7222330854144011</v>
       </c>
       <c r="Q2">
-        <v>1222.126649086339</v>
+        <v>1254.576515199774</v>
       </c>
       <c r="R2">
-        <v>1222.126649086339</v>
+        <v>11291.18863679796</v>
       </c>
       <c r="S2">
-        <v>0.07204796859822879</v>
+        <v>0.07111903091969611</v>
       </c>
       <c r="T2">
-        <v>0.07204796859822879</v>
+        <v>0.0711190309196961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H3">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I3">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J3">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.97544286099271</v>
+        <v>0.2227456666666666</v>
       </c>
       <c r="N3">
-        <v>1.97544286099271</v>
+        <v>0.668237</v>
       </c>
       <c r="O3">
-        <v>0.09650985733875032</v>
+        <v>0.01060939957266904</v>
       </c>
       <c r="P3">
-        <v>0.09650985733875032</v>
+        <v>0.01060939957266904</v>
       </c>
       <c r="Q3">
-        <v>161.0448545482844</v>
+        <v>18.42937385872311</v>
       </c>
       <c r="R3">
-        <v>161.0448545482844</v>
+        <v>165.864364728508</v>
       </c>
       <c r="S3">
-        <v>0.009494068910186587</v>
+        <v>0.001044718431605952</v>
       </c>
       <c r="T3">
-        <v>0.009494068910186587</v>
+        <v>0.001044718431605952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H4">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I4">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J4">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.08579392737977</v>
+        <v>2.016357666666666</v>
       </c>
       <c r="N4">
-        <v>3.08579392737977</v>
+        <v>6.049073</v>
       </c>
       <c r="O4">
-        <v>0.1507558318130988</v>
+        <v>0.09603932811449209</v>
       </c>
       <c r="P4">
-        <v>0.1507558318130988</v>
+        <v>0.0960393281144921</v>
       </c>
       <c r="Q4">
-        <v>251.5644689166681</v>
+        <v>166.8279784203924</v>
       </c>
       <c r="R4">
-        <v>251.5644689166681</v>
+        <v>1501.451805783532</v>
       </c>
       <c r="S4">
-        <v>0.0148304670145997</v>
+        <v>0.009457090908210574</v>
       </c>
       <c r="T4">
-        <v>0.0148304670145997</v>
+        <v>0.009457090908210572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H5">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I5">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J5">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.416471369859288</v>
+        <v>3.163758666666666</v>
       </c>
       <c r="N5">
-        <v>0.416471369859288</v>
+        <v>9.491275999999999</v>
       </c>
       <c r="O5">
-        <v>0.0203466236783966</v>
+        <v>0.1506901586390516</v>
       </c>
       <c r="P5">
-        <v>0.0203466236783966</v>
+        <v>0.1506901586390516</v>
       </c>
       <c r="Q5">
-        <v>33.95216966630417</v>
+        <v>261.7608330582204</v>
       </c>
       <c r="R5">
-        <v>33.95216966630417</v>
+        <v>2355.847497523984</v>
       </c>
       <c r="S5">
-        <v>0.002001580487413793</v>
+        <v>0.014838614109454</v>
       </c>
       <c r="T5">
-        <v>0.002001580487413793</v>
+        <v>0.01483861410945399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>236.457220390705</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H6">
-        <v>236.457220390705</v>
+        <v>248.211884</v>
       </c>
       <c r="I6">
-        <v>0.2853322788074714</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J6">
-        <v>0.2853322788074714</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.9911114573531</v>
+        <v>0.428889</v>
       </c>
       <c r="N6">
-        <v>14.9911114573531</v>
+        <v>1.286667</v>
       </c>
       <c r="O6">
-        <v>0.7323876871697541</v>
+        <v>0.02042802825938606</v>
       </c>
       <c r="P6">
-        <v>0.7323876871697541</v>
+        <v>0.02042802825938606</v>
       </c>
       <c r="Q6">
-        <v>3544.756545772965</v>
+        <v>35.485115572292</v>
       </c>
       <c r="R6">
-        <v>3544.756545772965</v>
+        <v>319.366040150628</v>
       </c>
       <c r="S6">
-        <v>0.2089738477506794</v>
+        <v>0.002011568844944437</v>
       </c>
       <c r="T6">
-        <v>0.2089738477506794</v>
+        <v>0.002011568844944436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H7">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I7">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J7">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.97544286099271</v>
+        <v>15.16337366666667</v>
       </c>
       <c r="N7">
-        <v>1.97544286099271</v>
+        <v>45.490121</v>
       </c>
       <c r="O7">
-        <v>0.09650985733875032</v>
+        <v>0.722233085414401</v>
       </c>
       <c r="P7">
-        <v>0.09650985733875032</v>
+        <v>0.7222330854144011</v>
       </c>
       <c r="Q7">
-        <v>467.107727950998</v>
+        <v>3594.809643823981</v>
       </c>
       <c r="R7">
-        <v>467.107727950998</v>
+        <v>32353.28679441583</v>
       </c>
       <c r="S7">
-        <v>0.02753737752184959</v>
+        <v>0.2037814155709979</v>
       </c>
       <c r="T7">
-        <v>0.02753737752184959</v>
+        <v>0.2037814155709979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H8">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I8">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J8">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>3.08579392737977</v>
+        <v>0.2227456666666666</v>
       </c>
       <c r="N8">
-        <v>3.08579392737977</v>
+        <v>0.668237</v>
       </c>
       <c r="O8">
-        <v>0.1507558318130988</v>
+        <v>0.01060939957266904</v>
       </c>
       <c r="P8">
-        <v>0.1507558318130988</v>
+        <v>0.01060939957266904</v>
       </c>
       <c r="Q8">
-        <v>729.6582547667374</v>
+        <v>52.80673603747956</v>
       </c>
       <c r="R8">
-        <v>729.6582547667374</v>
+        <v>475.260624337316</v>
       </c>
       <c r="S8">
-        <v>0.04301550503474737</v>
+        <v>0.002993491307638353</v>
       </c>
       <c r="T8">
-        <v>0.04301550503474737</v>
+        <v>0.002993491307638353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H9">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I9">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J9">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.416471369859288</v>
+        <v>2.016357666666666</v>
       </c>
       <c r="N9">
-        <v>0.416471369859288</v>
+        <v>6.049073</v>
       </c>
       <c r="O9">
-        <v>0.0203466236783966</v>
+        <v>0.09603932811449209</v>
       </c>
       <c r="P9">
-        <v>0.0203466236783966</v>
+        <v>0.0960393281144921</v>
       </c>
       <c r="Q9">
-        <v>98.47766248923648</v>
+        <v>478.0217216084183</v>
       </c>
       <c r="R9">
-        <v>98.47766248923648</v>
+        <v>4302.195494475764</v>
       </c>
       <c r="S9">
-        <v>0.005805548500194958</v>
+        <v>0.02709794196485657</v>
       </c>
       <c r="T9">
-        <v>0.005805548500194958</v>
+        <v>0.02709794196485657</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>276.653153049199</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H10">
-        <v>276.653153049199</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I10">
-        <v>0.3338366004149438</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J10">
-        <v>0.3338366004149438</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.9911114573531</v>
+        <v>3.163758666666666</v>
       </c>
       <c r="N10">
-        <v>14.9911114573531</v>
+        <v>9.491275999999999</v>
       </c>
       <c r="O10">
-        <v>0.7323876871697541</v>
+        <v>0.1506901586390516</v>
       </c>
       <c r="P10">
-        <v>0.7323876871697541</v>
+        <v>0.1506901586390516</v>
       </c>
       <c r="Q10">
-        <v>4147.338252388708</v>
+        <v>750.0382445013743</v>
       </c>
       <c r="R10">
-        <v>4147.338252388708</v>
+        <v>6750.344200512368</v>
       </c>
       <c r="S10">
-        <v>0.244497815670514</v>
+        <v>0.04251792732877186</v>
       </c>
       <c r="T10">
-        <v>0.244497815670514</v>
+        <v>0.04251792732877185</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>276.653153049199</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H11">
-        <v>276.653153049199</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I11">
-        <v>0.3338366004149438</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J11">
-        <v>0.3338366004149438</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.97544286099271</v>
+        <v>0.428889</v>
       </c>
       <c r="N11">
-        <v>1.97544286099271</v>
+        <v>1.286667</v>
       </c>
       <c r="O11">
-        <v>0.09650985733875032</v>
+        <v>0.02042802825938606</v>
       </c>
       <c r="P11">
-        <v>0.09650985733875032</v>
+        <v>0.02042802825938606</v>
       </c>
       <c r="Q11">
-        <v>546.5124961621636</v>
+        <v>101.677525544284</v>
       </c>
       <c r="R11">
-        <v>546.5124961621636</v>
+        <v>915.0977298985561</v>
       </c>
       <c r="S11">
-        <v>0.03221852268049962</v>
+        <v>0.005763862941329375</v>
       </c>
       <c r="T11">
-        <v>0.03221852268049962</v>
+        <v>0.005763862941329374</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H12">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I12">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J12">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.08579392737977</v>
+        <v>15.16337366666667</v>
       </c>
       <c r="N12">
-        <v>3.08579392737977</v>
+        <v>45.490121</v>
       </c>
       <c r="O12">
-        <v>0.1507558318130988</v>
+        <v>0.722233085414401</v>
       </c>
       <c r="P12">
-        <v>0.1507558318130988</v>
+        <v>0.7222330854144011</v>
       </c>
       <c r="Q12">
-        <v>853.6946196696844</v>
+        <v>4205.413312838672</v>
       </c>
       <c r="R12">
-        <v>853.6946196696844</v>
+        <v>37848.71981554805</v>
       </c>
       <c r="S12">
-        <v>0.05032781438521193</v>
+        <v>0.2383951204269514</v>
       </c>
       <c r="T12">
-        <v>0.05032781438521193</v>
+        <v>0.2383951204269514</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H13">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I13">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J13">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.416471369859288</v>
+        <v>0.2227456666666666</v>
       </c>
       <c r="N13">
-        <v>0.416471369859288</v>
+        <v>0.668237</v>
       </c>
       <c r="O13">
-        <v>0.0203466236783966</v>
+        <v>0.01060939957266904</v>
       </c>
       <c r="P13">
-        <v>0.0203466236783966</v>
+        <v>0.01060939957266904</v>
       </c>
       <c r="Q13">
-        <v>115.2181176262912</v>
+        <v>61.77633108365166</v>
       </c>
       <c r="R13">
-        <v>115.2181176262912</v>
+        <v>555.9869797528651</v>
       </c>
       <c r="S13">
-        <v>0.006792447678718121</v>
+        <v>0.003501956833413231</v>
       </c>
       <c r="T13">
-        <v>0.006792447678718121</v>
+        <v>0.003501956833413231</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>185.8949378875</v>
+        <v>277.340215</v>
       </c>
       <c r="H14">
-        <v>185.8949378875</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I14">
-        <v>0.2243189112963909</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J14">
-        <v>0.2243189112963909</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.9911114573531</v>
+        <v>2.016357666666666</v>
       </c>
       <c r="N14">
-        <v>14.9911114573531</v>
+        <v>6.049073</v>
       </c>
       <c r="O14">
-        <v>0.7323876871697541</v>
+        <v>0.09603932811449209</v>
       </c>
       <c r="P14">
-        <v>0.7323876871697541</v>
+        <v>0.0960393281144921</v>
       </c>
       <c r="Q14">
-        <v>2786.771733229244</v>
+        <v>559.2170687902316</v>
       </c>
       <c r="R14">
-        <v>2786.771733229244</v>
+        <v>5032.953619112085</v>
       </c>
       <c r="S14">
-        <v>0.164288408632801</v>
+        <v>0.03170071775158436</v>
       </c>
       <c r="T14">
-        <v>0.164288408632801</v>
+        <v>0.03170071775158436</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>185.8949378875</v>
+        <v>277.340215</v>
       </c>
       <c r="H15">
-        <v>185.8949378875</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I15">
-        <v>0.2243189112963909</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J15">
-        <v>0.2243189112963909</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.97544286099271</v>
+        <v>3.163758666666666</v>
       </c>
       <c r="N15">
-        <v>1.97544286099271</v>
+        <v>9.491275999999999</v>
       </c>
       <c r="O15">
-        <v>0.09650985733875032</v>
+        <v>0.1506901586390516</v>
       </c>
       <c r="P15">
-        <v>0.09650985733875032</v>
+        <v>0.1506901586390516</v>
       </c>
       <c r="Q15">
-        <v>367.2248279445451</v>
+        <v>877.4375088214466</v>
       </c>
       <c r="R15">
-        <v>367.2248279445451</v>
+        <v>7896.937579393019</v>
       </c>
       <c r="S15">
-        <v>0.02164898612759848</v>
+        <v>0.04973989594412013</v>
       </c>
       <c r="T15">
-        <v>0.02164898612759848</v>
+        <v>0.04973989594412012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>185.8949378875</v>
+        <v>277.340215</v>
       </c>
       <c r="H16">
-        <v>185.8949378875</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I16">
-        <v>0.2243189112963909</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J16">
-        <v>0.2243189112963909</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.08579392737977</v>
+        <v>0.428889</v>
       </c>
       <c r="N16">
-        <v>3.08579392737977</v>
+        <v>1.286667</v>
       </c>
       <c r="O16">
-        <v>0.1507558318130988</v>
+        <v>0.02042802825938606</v>
       </c>
       <c r="P16">
-        <v>0.1507558318130988</v>
+        <v>0.02042802825938606</v>
       </c>
       <c r="Q16">
-        <v>573.6334704638871</v>
+        <v>118.948167471135</v>
       </c>
       <c r="R16">
-        <v>573.6334704638871</v>
+        <v>1070.533507240215</v>
       </c>
       <c r="S16">
-        <v>0.03381738406389614</v>
+        <v>0.006742895549000284</v>
       </c>
       <c r="T16">
-        <v>0.03381738406389614</v>
+        <v>0.006742895549000283</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H17">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I17">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J17">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.416471369859288</v>
+        <v>15.16337366666667</v>
       </c>
       <c r="N17">
-        <v>0.416471369859288</v>
+        <v>45.490121</v>
       </c>
       <c r="O17">
-        <v>0.0203466236783966</v>
+        <v>0.722233085414401</v>
       </c>
       <c r="P17">
-        <v>0.0203466236783966</v>
+        <v>0.7222330854144011</v>
       </c>
       <c r="Q17">
-        <v>77.41991943191438</v>
+        <v>2897.084209926968</v>
       </c>
       <c r="R17">
-        <v>77.41991943191438</v>
+        <v>26073.75788934271</v>
       </c>
       <c r="S17">
-        <v>0.004564132472095295</v>
+        <v>0.1642289800634047</v>
       </c>
       <c r="T17">
-        <v>0.004564132472095295</v>
+        <v>0.1642289800634047</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>48.17954480489</v>
+        <v>191.058024</v>
       </c>
       <c r="H18">
-        <v>48.17954480489</v>
+        <v>573.174072</v>
       </c>
       <c r="I18">
-        <v>0.05813812447076505</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J18">
-        <v>0.05813812447076505</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>14.9911114573531</v>
+        <v>0.2227456666666666</v>
       </c>
       <c r="N18">
-        <v>14.9911114573531</v>
+        <v>0.668237</v>
       </c>
       <c r="O18">
-        <v>0.7323876871697541</v>
+        <v>0.01060939957266904</v>
       </c>
       <c r="P18">
-        <v>0.7323876871697541</v>
+        <v>0.01060939957266904</v>
       </c>
       <c r="Q18">
-        <v>722.2649261346435</v>
+        <v>42.557346927896</v>
       </c>
       <c r="R18">
-        <v>722.2649261346435</v>
+        <v>383.016122351064</v>
       </c>
       <c r="S18">
-        <v>0.0425796465175309</v>
+        <v>0.002412477226662672</v>
       </c>
       <c r="T18">
-        <v>0.0425796465175309</v>
+        <v>0.002412477226662672</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>48.17954480489</v>
+        <v>191.058024</v>
       </c>
       <c r="H19">
-        <v>48.17954480489</v>
+        <v>573.174072</v>
       </c>
       <c r="I19">
-        <v>0.05813812447076505</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J19">
-        <v>0.05813812447076505</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.97544286099271</v>
+        <v>2.016357666666666</v>
       </c>
       <c r="N19">
-        <v>1.97544286099271</v>
+        <v>6.049073</v>
       </c>
       <c r="O19">
-        <v>0.09650985733875032</v>
+        <v>0.09603932811449209</v>
       </c>
       <c r="P19">
-        <v>0.09650985733875032</v>
+        <v>0.0960393281144921</v>
       </c>
       <c r="Q19">
-        <v>95.17593783069836</v>
+        <v>385.241311470584</v>
       </c>
       <c r="R19">
-        <v>95.17593783069836</v>
+        <v>3467.171803235256</v>
       </c>
       <c r="S19">
-        <v>0.005610902098616044</v>
+        <v>0.02183843584674307</v>
       </c>
       <c r="T19">
-        <v>0.005610902098616044</v>
+        <v>0.02183843584674307</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>48.17954480489</v>
+        <v>191.058024</v>
       </c>
       <c r="H20">
-        <v>48.17954480489</v>
+        <v>573.174072</v>
       </c>
       <c r="I20">
-        <v>0.05813812447076505</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J20">
-        <v>0.05813812447076505</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.08579392737977</v>
+        <v>3.163758666666666</v>
       </c>
       <c r="N20">
-        <v>3.08579392737977</v>
+        <v>9.491275999999999</v>
       </c>
       <c r="O20">
-        <v>0.1507558318130988</v>
+        <v>0.1506901586390516</v>
       </c>
       <c r="P20">
-        <v>0.1507558318130988</v>
+        <v>0.1506901586390516</v>
       </c>
       <c r="Q20">
-        <v>148.6721467828511</v>
+        <v>604.461479266208</v>
       </c>
       <c r="R20">
-        <v>148.6721467828511</v>
+        <v>5440.153313395872</v>
       </c>
       <c r="S20">
-        <v>0.008764661314643658</v>
+        <v>0.03426551837442401</v>
       </c>
       <c r="T20">
-        <v>0.008764661314643658</v>
+        <v>0.03426551837442401</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>48.17954480489</v>
+        <v>191.058024</v>
       </c>
       <c r="H21">
-        <v>48.17954480489</v>
+        <v>573.174072</v>
       </c>
       <c r="I21">
-        <v>0.05813812447076505</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J21">
-        <v>0.05813812447076505</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.416471369859288</v>
+        <v>0.428889</v>
       </c>
       <c r="N21">
-        <v>0.416471369859288</v>
+        <v>1.286667</v>
       </c>
       <c r="O21">
-        <v>0.0203466236783966</v>
+        <v>0.02042802825938606</v>
       </c>
       <c r="P21">
-        <v>0.0203466236783966</v>
+        <v>0.02042802825938606</v>
       </c>
       <c r="Q21">
-        <v>20.06540102408948</v>
+        <v>81.94268485533601</v>
       </c>
       <c r="R21">
-        <v>20.06540102408948</v>
+        <v>737.4841636980241</v>
       </c>
       <c r="S21">
-        <v>0.001182914539974437</v>
+        <v>0.004645140624955488</v>
       </c>
       <c r="T21">
-        <v>0.001182914539974437</v>
+        <v>0.004645140624955487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>52.01228800000001</v>
+      </c>
+      <c r="H22">
+        <v>156.036864</v>
+      </c>
+      <c r="I22">
+        <v>0.0619031990312353</v>
+      </c>
+      <c r="J22">
+        <v>0.06190319903123528</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.16337366666667</v>
+      </c>
+      <c r="N22">
+        <v>45.490121</v>
+      </c>
+      <c r="O22">
+        <v>0.722233085414401</v>
+      </c>
+      <c r="P22">
+        <v>0.7222330854144011</v>
+      </c>
+      <c r="Q22">
+        <v>788.6817582022827</v>
+      </c>
+      <c r="R22">
+        <v>7098.135823820545</v>
+      </c>
+      <c r="S22">
+        <v>0.04470853843335083</v>
+      </c>
+      <c r="T22">
+        <v>0.04470853843335083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>52.01228800000001</v>
+      </c>
+      <c r="H23">
+        <v>156.036864</v>
+      </c>
+      <c r="I23">
+        <v>0.0619031990312353</v>
+      </c>
+      <c r="J23">
+        <v>0.06190319903123528</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2227456666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.668237</v>
+      </c>
+      <c r="O23">
+        <v>0.01060939957266904</v>
+      </c>
+      <c r="P23">
+        <v>0.01060939957266904</v>
+      </c>
+      <c r="Q23">
+        <v>11.58551176541867</v>
+      </c>
+      <c r="R23">
+        <v>104.269605888768</v>
+      </c>
+      <c r="S23">
+        <v>0.0006567557733488345</v>
+      </c>
+      <c r="T23">
+        <v>0.0006567557733488344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>52.01228800000001</v>
+      </c>
+      <c r="H24">
+        <v>156.036864</v>
+      </c>
+      <c r="I24">
+        <v>0.0619031990312353</v>
+      </c>
+      <c r="J24">
+        <v>0.06190319903123528</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.016357666666666</v>
+      </c>
+      <c r="N24">
+        <v>6.049073</v>
+      </c>
+      <c r="O24">
+        <v>0.09603932811449209</v>
+      </c>
+      <c r="P24">
+        <v>0.0960393281144921</v>
+      </c>
+      <c r="Q24">
+        <v>104.8753756696747</v>
+      </c>
+      <c r="R24">
+        <v>943.878381027072</v>
+      </c>
+      <c r="S24">
+        <v>0.005945141643097515</v>
+      </c>
+      <c r="T24">
+        <v>0.005945141643097515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>52.01228800000001</v>
+      </c>
+      <c r="H25">
+        <v>156.036864</v>
+      </c>
+      <c r="I25">
+        <v>0.0619031990312353</v>
+      </c>
+      <c r="J25">
+        <v>0.06190319903123528</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.163758666666666</v>
+      </c>
+      <c r="N25">
+        <v>9.491275999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.1506901586390516</v>
+      </c>
+      <c r="P25">
+        <v>0.1506901586390516</v>
+      </c>
+      <c r="Q25">
+        <v>164.5543269331627</v>
+      </c>
+      <c r="R25">
+        <v>1480.988942398464</v>
+      </c>
+      <c r="S25">
+        <v>0.009328202882281634</v>
+      </c>
+      <c r="T25">
+        <v>0.009328202882281632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>52.01228800000001</v>
+      </c>
+      <c r="H26">
+        <v>156.036864</v>
+      </c>
+      <c r="I26">
+        <v>0.0619031990312353</v>
+      </c>
+      <c r="J26">
+        <v>0.06190319903123528</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.428889</v>
+      </c>
+      <c r="N26">
+        <v>1.286667</v>
+      </c>
+      <c r="O26">
+        <v>0.02042802825938606</v>
+      </c>
+      <c r="P26">
+        <v>0.02042802825938606</v>
+      </c>
+      <c r="Q26">
+        <v>22.307498188032</v>
+      </c>
+      <c r="R26">
+        <v>200.767483692288</v>
+      </c>
+      <c r="S26">
+        <v>0.001264560299156474</v>
+      </c>
+      <c r="T26">
+        <v>0.001264560299156474</v>
       </c>
     </row>
   </sheetData>
